--- a/projects/project-3/assignment/src/data/ccot-time-structural-matches-with-defs.xlsx
+++ b/projects/project-3/assignment/src/data/ccot-time-structural-matches-with-defs.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,49 +503,49 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
+          <t>A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -555,49 +555,49 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
+          <t>A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -607,49 +607,49 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
+          <t>A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -659,49 +659,45 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -711,49 +707,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
+          <t>A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -763,45 +759,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -811,49 +811,49 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
+          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -863,49 +863,49 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
+          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -915,49 +915,49 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
+          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -967,49 +967,45 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1019,49 +1015,49 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
+          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1071,45 +1067,49 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1119,49 +1119,49 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
+          <t>A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1171,49 +1171,49 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
+          <t>A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1223,49 +1223,49 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
+          <t>A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1275,49 +1275,45 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1327,49 +1323,49 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
+          <t>A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1379,45 +1375,49 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1427,49 +1427,49 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
+          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1479,49 +1479,49 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
+          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1531,49 +1531,49 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
+          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1583,49 +1583,45 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1635,49 +1631,49 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
+          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1687,45 +1683,49 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the duration of 9,192,631,770 periods of the radiation corresponding to the transition between the two hyperfine levels of the ground state of the cesium 133 atom.</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one rotation around its Rotational Axis as specified relative to a particular Temporal Reference System.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1735,49 +1735,49 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to sixty consecutive Seconds.</t>
+          <t>A Temporal Instant that is part of a Day.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1787,49 +1787,49 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to sixty consecutive Seconds.</t>
+          <t>A Temporal Instant that is part of a Day.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1839,49 +1839,49 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to sixty consecutive Seconds.</t>
+          <t>A Temporal Instant that is part of a Day.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1891,49 +1891,45 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to sixty consecutive Seconds.</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A Temporal Instant that is part of a Day.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1943,49 +1939,49 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to sixty consecutive Seconds.</t>
+          <t>A Temporal Instant that is part of a Day.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1995,35 +1991,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to sixty consecutive Seconds.</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>A Temporal Instant that is part of a Day.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2048,22 +2048,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
@@ -2100,22 +2100,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
@@ -2152,22 +2152,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
@@ -2204,22 +2204,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2227,11 +2227,7 @@
           <t>A Temporal Interval that is equal to seven consecutive Days.</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2256,22 +2252,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2281,7 +2277,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
@@ -2308,22 +2304,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2331,17 +2327,21 @@
           <t>A Temporal Interval that is equal to seven consecutive Days.</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2351,49 +2351,49 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
+          <t>A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2403,49 +2403,49 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
+          <t>A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2455,49 +2455,49 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
+          <t>A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2507,49 +2507,45 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2559,49 +2555,49 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
+          <t>A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2611,45 +2607,49 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Days and spans at least one Day.</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t>A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2659,49 +2659,49 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A Temporal Instant that is part of a Day.</t>
+          <t>A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2711,49 +2711,49 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A Temporal Instant that is part of a Day.</t>
+          <t>A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2763,49 +2763,49 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>A Temporal Instant that is part of a Day.</t>
+          <t>A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2815,49 +2815,45 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>A Temporal Instant that is part of a Day.</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2867,49 +2863,49 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>A Temporal Instant that is part of a Day.</t>
+          <t>A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2919,45 +2915,49 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>A Temporal Instant that is part of a Day.</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
+          <t>A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2967,49 +2967,49 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
+          <t>A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3019,49 +3019,49 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
+          <t>A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3071,49 +3071,49 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
+          <t>A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3123,49 +3123,45 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3175,49 +3171,49 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
+          <t>A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3227,35 +3223,39 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+          <t>A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3280,22 +3280,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
@@ -3332,22 +3332,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
@@ -3384,22 +3384,22 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
@@ -3436,22 +3436,22 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3459,11 +3459,7 @@
           <t>A Temporal Interval that is based on the approximate length of time required for a Natural Satellite to complete one cycle of its rotational motion around its Primary Body.</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3488,22 +3484,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3513,7 +3509,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
@@ -3540,22 +3536,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3563,17 +3559,21 @@
           <t>A Temporal Interval that is based on the approximate length of time required for a Natural Satellite to complete one cycle of its rotational motion around its Primary Body.</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3583,49 +3583,49 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
+          <t>A Temporal Interval that is equal to sixty consecutive Minutes.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3635,49 +3635,49 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
+          <t>A Temporal Interval that is equal to sixty consecutive Minutes.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3687,49 +3687,49 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
+          <t>A Temporal Interval that is equal to sixty consecutive Minutes.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3739,49 +3739,45 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A Temporal Interval that is equal to sixty consecutive Minutes.</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3791,49 +3787,49 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
+          <t>A Temporal Interval that is equal to sixty consecutive Minutes.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3843,45 +3839,49 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Seconds and spans at least one Second.</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
+          <t>A Temporal Interval that is equal to sixty consecutive Minutes.</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3891,49 +3891,49 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
+          <t>A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3943,49 +3943,49 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
+          <t>A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3995,49 +3995,49 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
+          <t>A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4047,49 +4047,45 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4099,49 +4095,49 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
+          <t>A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4151,45 +4147,49 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Years and spans at least one Year.</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>A one-dimensional temporal region that is measured in Weeks and spans at least one Week.</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4199,49 +4199,49 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to sixty consecutive Minutes.</t>
+          <t>A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4251,49 +4251,49 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to sixty consecutive Minutes.</t>
+          <t>A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4303,49 +4303,49 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to sixty consecutive Minutes.</t>
+          <t>A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4355,49 +4355,45 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to sixty consecutive Minutes.</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4407,49 +4403,49 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to sixty consecutive Minutes.</t>
+          <t>A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4459,97 +4455,101 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to sixty consecutive Minutes.</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
+          <t>A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>Multi-Hour Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>R:some</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#Year</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>R:some</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Month of year</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
+          <t>A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4559,49 +4559,49 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
+          <t>A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4611,49 +4611,49 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
+          <t>A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4663,49 +4663,45 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4715,49 +4711,49 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
+          <t>A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4767,45 +4763,49 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>A Temporal Interval that is equal to the approximate length of time required for an Astronomical Body to complete one Orbital Revolution around its Primary Body as specified relative to a particular Temporal Reference System.</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
+          <t>A one-dimensional temporal region that is measured in Hours and spans at least one Hour.</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4815,49 +4815,49 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
+          <t>A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4867,49 +4867,49 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
+          <t>A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4919,49 +4919,49 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
+          <t>A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4971,49 +4971,45 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5023,49 +5019,49 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
+          <t>A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5075,45 +5071,49 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region that is measured in Months and spans at least one Month.</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+          <t>A one-dimensional temporal region that is measured in Minutes and spans at least one Minute.</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5123,49 +5123,49 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
+          <t>A Temporal Interval that is equal to sixty consecutive Seconds.</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>The month of the year</t>
+          <t>Year duration</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5175,49 +5175,49 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
+          <t>A Temporal Interval that is equal to sixty consecutive Seconds.</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>A position on a time-line</t>
+          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5227,49 +5227,49 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
+          <t>A Temporal Interval that is equal to sixty consecutive Seconds.</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Year duration</t>
+          <t>The month of the year</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5279,49 +5279,45 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
-        </is>
-      </c>
+          <t>A Temporal Interval that is equal to sixty consecutive Seconds.</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5331,49 +5327,49 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
+          <t>A Temporal Interval that is equal to sixty consecutive Seconds.</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system.</t>
+          <t>A position on a time-line</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5383,35 +5379,39 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>A Time of Day as specified according to the Julian Calendar using the Julian Date epoch.</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr"/>
+          <t>A Temporal Interval that is equal to sixty consecutive Seconds.</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
